--- a/template/内部仕様書_Template.xlsx
+++ b/template/内部仕様書_Template.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E246A9D-A9C5-436D-9718-7F0939BB7226}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +20,87 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>モジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加行</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正行</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除行</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規換算</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流用</t>
+    <rPh sb="0" eb="2">
+      <t>リュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流用換算</t>
+    <rPh sb="0" eb="2">
+      <t>リュウヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +120,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +421,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+  </cols>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62DA55A-49DD-41E4-88FE-276ABA6AF9BD}">
+  <dimension ref="B2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>